--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\LeetCode-Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepository\LeetCode-Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D3255-5982-41FE-A9B1-51F579E722B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBE50F1-81B4-47C9-9AAA-F53FECBEFCD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{9709B6EE-8613-4AEB-BB68-D7D3DA8DFE76}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23451" windowHeight="12682" xr2:uid="{9709B6EE-8613-4AEB-BB68-D7D3DA8DFE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,6 +76,25 @@
   </si>
   <si>
     <t>检查9*9数独有效性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出一个序列中所有相加为0的三元组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest_Palindromic_Substring</t>
+  </si>
+  <si>
+    <t>寻找最长回文子序列</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD80E678-0A28-4A30-A065-270AEBD3F03A}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -548,6 +562,36 @@
       <c r="L2" s="2"/>
       <c r="M2" s="4"/>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
